--- a/test/src/main/resources/testData/TestData.xlsx
+++ b/test/src/main/resources/testData/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -7655,8 +7655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10016,7 +10016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
